--- a/plots/basic_stats/two_var_stats/allmus_size_vs_governance-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_size_vs_governance-PC.xlsx
@@ -365,67 +365,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Cadw</t>
+          <t>Government-Cadw</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Local Authority</t>
+          <t>Government-Local_Authority</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>/Government/National</t>
+          <t>Government-National</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>/Government/Other</t>
+          <t>Government-Other</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/English Heritage</t>
+          <t>Independent-English_Heritage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Historic Environment Scotland</t>
+          <t>Independent-Historic_Environment_Scotland</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust</t>
+          <t>Independent-National_Trust</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/National Trust for Scotland</t>
+          <t>Independent-National_Trust_for_Scotland</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Not for profit</t>
+          <t>Independent-Not_for_profit</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Private</t>
+          <t>Independent-Private</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>/Independent/Unknown</t>
+          <t>Independent-Unknown</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>/University</t>
+          <t>University</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>/Unknown</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -441,46 +441,46 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C2">
-        <v>6.73</v>
+        <v>6.432</v>
       </c>
       <c r="D2">
-        <v>0.025</v>
+        <v>0.142</v>
       </c>
       <c r="E2">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="F2">
-        <v>0.299</v>
+        <v>0.284</v>
       </c>
       <c r="G2">
-        <v>0.174</v>
+        <v>0.166</v>
       </c>
       <c r="H2">
-        <v>0.598</v>
+        <v>0.591</v>
       </c>
       <c r="I2">
-        <v>0.174</v>
+        <v>0.166</v>
       </c>
       <c r="J2">
-        <v>28.215</v>
+        <v>27.903</v>
       </c>
       <c r="K2">
-        <v>14.282</v>
+        <v>13.951</v>
       </c>
       <c r="L2">
-        <v>4.985</v>
+        <v>4.611</v>
       </c>
       <c r="M2">
-        <v>1.147</v>
+        <v>1.088</v>
       </c>
       <c r="N2">
-        <v>2.094</v>
+        <v>1.939</v>
       </c>
       <c r="O2">
-        <v>58.848</v>
+        <v>57.391</v>
       </c>
     </row>
     <row r="3">
@@ -493,43 +493,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>11.042</v>
+        <v>10.641</v>
       </c>
       <c r="D3">
-        <v>0.224</v>
+        <v>0.213</v>
       </c>
       <c r="E3">
-        <v>0.05</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F3">
-        <v>0.673</v>
+        <v>0.638</v>
       </c>
       <c r="G3">
-        <v>0.075</v>
+        <v>0.189</v>
       </c>
       <c r="H3">
-        <v>1.67</v>
+        <v>1.561</v>
       </c>
       <c r="I3">
-        <v>0.324</v>
+        <v>0.355</v>
       </c>
       <c r="J3">
-        <v>8.225</v>
+        <v>7.945</v>
       </c>
       <c r="K3">
-        <v>1.147</v>
+        <v>1.182</v>
       </c>
       <c r="L3">
-        <v>0.449</v>
+        <v>0.402</v>
       </c>
       <c r="M3">
-        <v>1.097</v>
+        <v>1.04</v>
       </c>
       <c r="N3">
-        <v>0.025</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="O3">
-        <v>25.001</v>
+        <v>24.308</v>
       </c>
     </row>
     <row r="4">
@@ -542,43 +542,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.462</v>
+        <v>4.304</v>
       </c>
       <c r="D4">
-        <v>1.321</v>
+        <v>1.348</v>
       </c>
       <c r="E4">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="F4">
-        <v>0.324</v>
+        <v>0.307</v>
       </c>
       <c r="G4">
-        <v>0.025</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="H4">
-        <v>2.268</v>
+        <v>2.152</v>
       </c>
       <c r="I4">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J4">
-        <v>3.315</v>
+        <v>3.334</v>
       </c>
       <c r="K4">
-        <v>0.773</v>
+        <v>0.78</v>
       </c>
       <c r="L4">
-        <v>0.125</v>
+        <v>0.118</v>
       </c>
       <c r="M4">
-        <v>0.374</v>
+        <v>0.355</v>
       </c>
       <c r="N4">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="O4">
-        <v>13.137</v>
+        <v>12.911</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="D5">
-        <v>0.224</v>
+        <v>0.213</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05</v>
+        <v>0.024</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.324</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="6">
@@ -640,43 +640,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.374</v>
+        <v>0.402</v>
       </c>
       <c r="D6">
-        <v>0.075</v>
+        <v>0.024</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G6">
-        <v>0.15</v>
+        <v>0.047</v>
       </c>
       <c r="H6">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="I6">
-        <v>0.075</v>
+        <v>0.047</v>
       </c>
       <c r="J6">
-        <v>0.698</v>
+        <v>1.797</v>
       </c>
       <c r="K6">
-        <v>0.623</v>
+        <v>1.844</v>
       </c>
       <c r="L6">
-        <v>0.1</v>
+        <v>0.095</v>
       </c>
       <c r="M6">
-        <v>0.025</v>
+        <v>0.118</v>
       </c>
       <c r="N6">
-        <v>0.499</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="O6">
-        <v>2.694</v>
+        <v>5.108</v>
       </c>
     </row>
     <row r="7">
@@ -686,46 +686,46 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.075</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="C7">
-        <v>22.633</v>
+        <v>21.803</v>
       </c>
       <c r="D7">
-        <v>1.869</v>
+        <v>1.94</v>
       </c>
       <c r="E7">
-        <v>0.15</v>
+        <v>0.236</v>
       </c>
       <c r="F7">
-        <v>1.296</v>
+        <v>1.253</v>
       </c>
       <c r="G7">
-        <v>0.449</v>
+        <v>0.497</v>
       </c>
       <c r="H7">
-        <v>4.611</v>
+        <v>4.375</v>
       </c>
       <c r="I7">
-        <v>0.648</v>
+        <v>0.639</v>
       </c>
       <c r="J7">
-        <v>40.503</v>
+        <v>41.003</v>
       </c>
       <c r="K7">
-        <v>16.825</v>
+        <v>17.757</v>
       </c>
       <c r="L7">
-        <v>5.659000000000001</v>
+        <v>5.226</v>
       </c>
       <c r="M7">
-        <v>2.643</v>
+        <v>2.601</v>
       </c>
       <c r="N7">
-        <v>2.643</v>
+        <v>2.602</v>
       </c>
       <c r="O7">
-        <v>100.004</v>
+        <v>100.003</v>
       </c>
     </row>
   </sheetData>
